--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -416,7 +416,7 @@
   <cols>
     <col min="1" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="56" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -26,39 +26,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/meeting/search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"searchKey": "", "pageNo": 1, "pageSize": 20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"searchKey": "joke", "pageNo": 1, "pageSize": 20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MeetingSearch_Normal正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MeetingSearch_NoContent没有内容搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m/getLiveOrPreviewMeetingCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"startTime":"2018-01-01 00:00:00","endTime":"2018-12-31 23:59:59"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"startTime":"","endTime":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取直播和预告数量-正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取直播和预告数量-没有参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,13 +409,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -426,50 +427,50 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2000003</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,22 @@
   </si>
   <si>
     <t>获取直播和预告数量-没有参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m/getLiveAndPreviewMeetingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取预告，直播列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -450,7 +466,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -467,10 +483,27 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>2000003</v>
+        <v>2003013</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获取直播和预告数量-没有参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/m/getLiveAndPreviewMeetingList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,6 +71,50 @@
   </si>
   <si>
     <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m/getLiveOrPreviewMeeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页-获取直播、预告信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/p/getProductYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getProductYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"startTime":"20180101","endTime":"20180202"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取直播和预告数量-参数格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"startTime":"2019-01-01 00:00:00","endTime":"2018-12-31 23:59:59"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取直播和预告数量-参数逻辑错误(无效参数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取直播和预告数量-参数为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,12 +161,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -434,7 +477,7 @@
     <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -480,30 +523,115 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1">
-        <v>2003013</v>
+        <v>2000001</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000002</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2003013</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -8,15 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="meeting_info" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,15 +81,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/p/getProductYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,7 +459,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -523,13 +514,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>2000001</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -540,13 +531,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>2000002</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -563,7 +554,7 @@
         <v>2003013</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -580,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -608,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -619,19 +610,19 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -643,26 +634,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,22 @@
   </si>
   <si>
     <t>获取直播和预告数量-参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Is_check(需要SQL校验1，不需要0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"startTime":"2019-01-01","endTime":"2018-12-31"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select sex from edu_user WHERE id = 1709</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,173 +472,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="71.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2000001</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2003012</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2000002</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2003013</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
+      <c r="G4" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -634,71 +585,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5">
+    <row r="1" spans="1:7" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2000001</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2000002</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2003013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="27">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="meeting_info" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,35 +38,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/m/liveOrPreviewMeetingCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/m/getLiveOrPreviewMeetingCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"startTime":"2018-01-01 00:00:00","endTime":"2018-12-31 23:59:59"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"startTime":"","endTime":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取直播和预告数量-正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/m/getLiveAndPreviewMeetingList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取预告，直播列表</t>
+    <t>{"startTime":"2018-01-01","endTime":"2018-12-31"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播预告数量--正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播预告数量 -- 参数格式错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,55 +74,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/m/getLiveOrPreviewMeeting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现页-获取直播、预告信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/p/getProductYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getProductYear</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"startTime":"20180101","endTime":"20180202"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取直播和预告数量-参数格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"startTime":"2019-01-01 00:00:00","endTime":"2018-12-31 23:59:59"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取直播和预告数量-参数逻辑错误(无效参数)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取直播和预告数量-参数为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Is_check(需要SQL校验1，不需要0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"startTime":"2019-01-01","endTime":"2018-12-31"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select sex from edu_user WHERE id = 1709</t>
+    <t>直播预告数量 -- 无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT sex FROM edu_user WHERE id = 37302</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,15 +125,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,19 +429,18 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="47" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="35.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="50.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -507,30 +460,30 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -538,19 +491,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>2003012</v>
+        <v>2000002</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
@@ -558,19 +511,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>2000003</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -585,154 +538,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2000001</v>
-      </c>
-      <c r="G1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2000002</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2003013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="27">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,15 +38,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>is_check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/m/liveOrPreviewMeetingCount</t>
+    <t>/m/liveAndPreviewMeetingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取直播、预告列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,19 +58,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"startTime":"2018-01-01 00:00:00","endTime":"2018-12-31 23:59:59"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"startTime":"2018-01-01","endTime":"2018-12-31"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播预告数量--正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播预告数量 -- 参数格式错误</t>
+    <t>会议接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的V币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u/opinionFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈提交 --没传图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCoinNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content": "autotest","imageUrl":"","mobile": "13752852018","userId": 47}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,11 +94,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直播预告数量 -- 无参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT sex FROM edu_user WHERE id = 37302</t>
+    <t>SELECT date_format(create_time,'%Y-%m-%d %H:%i') as result FROM user_opinion WHERE user_id=47 order by create_time DESC LIMIT 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u/coinCount/47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT coin_num as result FROM user_info WHERE id=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -125,12 +153,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,107 +469,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="35.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="56" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.25" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="48.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="22.625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="49.625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" ht="50.1" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3">
+        <v>99</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="50.1" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="50.1" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2000002</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2000003</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -540,9 +603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,38 +42,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/m/liveAndPreviewMeetingList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取直播、预告列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取我的V币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/u/opinionFeedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意见反馈提交 --没传图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SQL_check</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,31 +54,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>totalCoinNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"content": "autotest","imageUrl":"","mobile": "13752852018","userId": 47}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT date_format(create_time,'%Y-%m-%d %H:%i') as result FROM user_opinion WHERE user_id=47 order by create_time DESC LIMIT 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/u/coinCount/47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT coin_num as result FROM user_info WHERE id=3</t>
+    <t>用户签到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT date_format(create_time,'%Y-%m-%d %H:%i') as result FROM user_operation_record WHERE user_id=58 and operation_type_code=02 order by create_time DESC LIMIT 1;
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户签到 --重复签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的分享列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalElements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户统计信息 --状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户统计信息 --检测V币数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户统计信息 --检测是否会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户统计信息 --检测用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isVip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的V币明细 --状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalElements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取观看记录列表 --检测观看条数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取观看记录列表 --状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的订单列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM user_operation_record WHERE user_id=58 AND operation_type_code=09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT coin_num as result FROM user_info WHERE id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT is_vip as result FROM user_info WHERE id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT nickname as result FROM user_info WHERE id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/signIn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/sharedList/1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/userStatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/coinList/1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/watchList/1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/orderList/1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM order_info WHERE user_id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT count(*) as result FROM user_lesson_relation WHERE user_id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的订单列表 --订单数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +206,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -153,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,11 +258,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,11 +555,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -482,7 +568,7 @@
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="38.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
     <col min="8" max="8" width="22.625" style="4" customWidth="1"/>
@@ -510,74 +596,79 @@
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="50.1" customHeight="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="76.5" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="50.1" customHeight="1">
-      <c r="A3" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
+      <c r="F3" s="5">
+        <v>2</v>
       </c>
       <c r="G3" s="3">
-        <v>3</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50.1" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -586,10 +677,247 @@
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="53.25" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="41.25" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="44.25" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="54.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,74 @@
   </si>
   <si>
     <t>获取我的订单列表 --订单数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户统计信息 --检测是否签到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSigned</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT IF((SELECT date_format(create_time,'%Y-%m-%d') as result FROM user_operation_record WHERE user_id=58 and operation_type_code=02 order by create_time DESC LIMIT 1)=(SELECT DATE_FORMAT(NOW(),'%Y-%m-%d')),1,0) as result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isNewReply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户统计信息 --检测是否有新的意见反馈回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户统计信息 --检测是否有未读的系统消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isUnreadMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT EXISTS(SELECT * FROM robot_message_record WHERE receive_user_id =58 AND send_status_code = 1) as result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT EXISTS(SELECT * FROM user_opinion WHERE user_id=58 AND read_type_code=0 AND reply_time IS NOT NULL) as result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/u/opinionFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"content": "auto_test","imageUrl": "","mobile": "13752852018","userId":58}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈提交 --正常状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT date_format(create_time,'%Y-%m-%d %H:%i') as result FROM user_opinion WHERE user_id=58  order by create_time DESC LIMIT 1;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈提交 --手机必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意见反馈提交 --userId校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,14 +274,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -258,7 +318,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -555,21 +615,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="42.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
     <col min="8" max="8" width="22.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="49.625" style="1" customWidth="1"/>
@@ -602,7 +662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="76.5" customHeight="1">
+    <row r="2" spans="1:9" ht="66.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -648,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="5">
-        <v>2</v>
+        <v>2001023</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -764,12 +824,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="44.25" customHeight="1">
+    <row r="8" spans="1:9" ht="79.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
@@ -778,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -787,44 +847,50 @@
         <v>2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="38.25" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="79.5" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="37.5" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="44.25" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>6</v>
@@ -836,24 +902,30 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="54.75" customHeight="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="44.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -862,21 +934,21 @@
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24.95" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="38.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>6</v>
@@ -891,15 +963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51.75" customHeight="1">
+    <row r="13" spans="1:9" ht="37.5" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
@@ -911,13 +983,124 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="54.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="66.75" customHeight="1">
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B19" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="182">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/u/opinionFeedback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,7 +251,595 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>意见反馈提交 --userId校验</t>
+    <t>{"content": "auto_test","imageUrl": "","mobile": "","userId":58}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的意见反馈列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalElements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM user_opinion WHERE user_id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/opinionFeedback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/opinionList/1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号 --正常绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": "13752852018","type": "07","userId": 58}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT mobile as result FROM user_info WHERE id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": "","type": "07","userId": 58}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile": "15123645350","type": "08","userId": 58}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号 --手机号为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机号 --正常修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取我的V币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCoinNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT coin_num as result FROM user_info WHERE id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/bindMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/coinCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalRevenue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frozenAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cashedAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收益数量 --余额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收益数量 --总收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收益数量--已提现金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的收益数量 --冻结金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT total_revenue as result FROM user_info WHERE id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT frozen_amount as result FROM user_info WHERE id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT SUM(amount) as result FROM user_account_statement WHERE user_id=58 and account_type_code = 0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取账单记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalElements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM user_account_statement WHERE user_id=58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posterUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT poster_url as result FROM product_info WHERE id =5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取观看记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalElements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM user_lesson_relation WHERE user_id =58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取分享海报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT poster_url as result FROM user_qrcode WHERE user_id =58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程推广列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM product_info WHERE owner_user_id =58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴趣设置-保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"code": "0201","name": "医考","orderBy": 1},{"code": "0301","name": "妇科","orderBy": 1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT date_format(create_time,'%Y-%m-%d %H:%i') as result FROM user_favorite WHERE user_id =58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用户id获取用户兴趣设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴趣设置-获取所有学科分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验验证码 --错误验证码(短信)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验验证码 --错误验证码(语音)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验验证码 --验证码类型错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程海报 --正常获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程海报 --课程不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程海报 --其他用户的课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程海报 --课程已禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取直播、预告列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页-获取直播、预告信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"startTime" : "2018-01-01 00:00:00","endTime":"2018-12-31 23:59:59"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>previewCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页-获取直播、预告数量 --预告数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页-获取直播、预告数量 --直播数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>liveCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAppointment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页-获取直播、预告数量 --无参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM meeting_info WHERE `enable`=1 and status_code=02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"opsTypeCode":"1","userId"：58,"meetingId":9}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号 --该用户已绑定相同手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号 --该手机号已被别人绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验手机号 --正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT EXISTS(SELECT * FROM user_appointment WHERE user_id=58 and meeting_id=3) as result;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议详情 --已预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议详情 --会议不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT EXISTS(SELECT * FROM user_appointment WHERE user_id=58 AND meeting_id=9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消预约会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"opsTypeCode":"0","userId"：58,"meetingId":9}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/accountStatement/1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/u/coursePoster/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/coursePoster/9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/u/coursePoster/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/coursePoster/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/userPoster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/promotionList/1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/verifyMobile/13012345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/verifyMobile/13752852018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/verifyMobile/15123825265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/o/subjcet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/api/v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/o/verificationCode/01/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>13752852018</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/o/checkVerifyCode/01/13752852018/9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/o/checkVerifyCode/02/13752852018/9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/o/checkVerifyCode/05/13752852018/9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/um/liveAndPreviewMeetingList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/um/meeting/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/um/meeting/9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/m/liveOrPreviewMeeting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/m/liveOrPreviewMeetingCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/u/appointment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM meeting_info WHERE `enable`=1 and status_code in (01,03)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"keyword":"","pageNo":"1","pageSize":"20"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取成为会员方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取二级学科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取课程详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/p/courseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/p/courseQueryCriteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/p/getMemberWay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/p/secondSubject/02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/up/course/7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +847,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +860,30 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -302,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -320,6 +928,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,22 +1229,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="42.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
+    <col min="7" max="7" width="12.75" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.625" style="4" customWidth="1"/>
     <col min="9" max="9" width="49.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -1061,24 +1675,27 @@
         <v>2</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="66.75" customHeight="1">
+    <row r="17" spans="1:9" ht="66.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1087,20 +1704,1088 @@
         <v>3</v>
       </c>
       <c r="H17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="42.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="24.95" customHeight="1">
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" ht="24.95" customHeight="1">
+      <c r="F18" s="3">
+        <v>2001007</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="43.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="48" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="3">
+        <v>2001007</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="48" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>13752852018</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="48" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>15123645350</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="33" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="38.25" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="51.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2001024</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2001025</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="40.5" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2000023</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2000023</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2000001</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="39" customHeight="1">
+      <c r="A47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>2</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="39" customHeight="1">
+      <c r="A48" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2002004</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" customHeight="1">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>2</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="45" customHeight="1">
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>2</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="45" customHeight="1">
+      <c r="A52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="3">
+        <v>2000001</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="54.75" customHeight="1">
+      <c r="A53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="54.75" customHeight="1">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="36.75" customHeight="1">
+      <c r="A55" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="24.95" customHeight="1">
+      <c r="A59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="188">
   <si>
     <t>api</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -840,6 +840,29 @@
   </si>
   <si>
     <t>/api/v1/up/course/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习列表课程查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/uc/myCourseList/1/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalElements</t>
+  </si>
+  <si>
+    <t>SELECT COUNT(*) as result FROM order_info WHERE user_id=58 AND status_code=02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -910,15 +933,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1229,11 +1249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
@@ -1243,9 +1263,9 @@
     <col min="3" max="3" width="36" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="43.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -1263,13 +1283,13 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1278,7 +1298,7 @@
     </row>
     <row r="2" spans="1:9" ht="66.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -1292,13 +1312,13 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1321,10 +1341,10 @@
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>2001023</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1344,13 +1364,13 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1373,10 +1393,10 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1396,13 +1416,13 @@
       <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1425,13 +1445,13 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1454,13 +1474,13 @@
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1483,13 +1503,13 @@
       <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>46</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1512,13 +1532,13 @@
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1541,13 +1561,13 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1570,10 +1590,10 @@
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1593,10 +1613,10 @@
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1616,13 +1636,13 @@
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1645,10 +1665,10 @@
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1668,13 +1688,13 @@
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -1697,13 +1717,13 @@
       <c r="E17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
         <v>3</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -1726,10 +1746,10 @@
       <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>2001007</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1749,13 +1769,13 @@
       <c r="E19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
         <v>2</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -1778,10 +1798,10 @@
       <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>2001007</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1801,13 +1821,13 @@
       <c r="E21" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="3">
-        <v>1</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3">
         <v>13752852018</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1830,13 +1850,13 @@
       <c r="E22" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3">
         <v>15123645350</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1859,13 +1879,13 @@
       <c r="E23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1888,13 +1908,13 @@
       <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1917,13 +1937,13 @@
       <c r="E25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
         <v>2</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1943,13 +1963,13 @@
       <c r="E26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
         <v>2</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1972,13 +1992,13 @@
       <c r="E27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
         <v>2</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>82</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2001,13 +2021,13 @@
       <c r="E28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
         <v>2</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="3" t="s">
         <v>91</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2021,7 +2041,7 @@
       <c r="B29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2030,13 +2050,13 @@
       <c r="E29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
         <v>2</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2059,10 +2079,10 @@
       <c r="E30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2073,7 +2093,7 @@
       <c r="B31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2082,10 +2102,10 @@
       <c r="E31" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2105,10 +2125,10 @@
       <c r="E32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2128,13 +2148,13 @@
       <c r="E33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
         <v>2</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>98</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2157,13 +2177,13 @@
       <c r="E34" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
         <v>2</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>94</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2186,13 +2206,13 @@
       <c r="E35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
         <v>2</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="3" t="s">
         <v>98</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -2215,13 +2235,13 @@
       <c r="E36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
         <v>3</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>106</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -2244,10 +2264,10 @@
       <c r="E37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2267,10 +2287,10 @@
       <c r="E38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2290,10 +2310,10 @@
       <c r="E39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>2001024</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G39" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2313,10 +2333,10 @@
       <c r="E40" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>2001025</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2336,10 +2356,10 @@
       <c r="E41" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2350,7 +2370,7 @@
       <c r="B42" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -2359,10 +2379,10 @@
       <c r="E42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2382,10 +2402,10 @@
       <c r="E43" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <v>2000023</v>
       </c>
-      <c r="G43" s="3">
+      <c r="G43" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2405,10 +2425,10 @@
       <c r="E44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <v>2000023</v>
       </c>
-      <c r="G44" s="3">
+      <c r="G44" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2428,10 +2448,10 @@
       <c r="E45" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <v>2000001</v>
       </c>
-      <c r="G45" s="3">
+      <c r="G45" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2451,10 +2471,10 @@
       <c r="E46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="3">
-        <v>1</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2474,10 +2494,10 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
         <v>2</v>
       </c>
       <c r="H47" s="1" t="s">
@@ -2503,10 +2523,10 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <v>2002004</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G48" s="2">
         <v>0</v>
       </c>
       <c r="H48" s="1"/>
@@ -2527,10 +2547,10 @@
       <c r="E49" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F49" s="3">
-        <v>1</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2550,13 +2570,13 @@
       <c r="E50" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F50" s="3">
-        <v>1</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
         <v>2</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>126</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -2579,13 +2599,13 @@
       <c r="E51" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -2608,10 +2628,10 @@
       <c r="E52" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <v>2000001</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2631,13 +2651,13 @@
       <c r="E53" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3">
         <v>1</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -2660,13 +2680,13 @@
       <c r="E54" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="3">
-        <v>1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1</v>
+      </c>
+      <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -2689,10 +2709,10 @@
       <c r="E55" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2712,10 +2732,10 @@
       <c r="E56" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2735,10 +2755,10 @@
       <c r="E57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F57" s="3">
-        <v>1</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2758,10 +2778,10 @@
       <c r="E58" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2781,11 +2801,40 @@
       <c r="E59" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="50.1" customHeight="1">
+      <c r="A60" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/venv/HuShi/TestDatas/test_data_ddt.xlsx
+++ b/venv/HuShi/TestDatas/test_data_ddt.xlsx
@@ -1252,8 +1252,8 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1"/>
